--- a/responses_2023-03-13-16-21.xlsx
+++ b/responses_2023-03-13-16-21.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1783,6 +1783,1858 @@
         <v>44998.68874793229</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Farm
+The farm is a symbol of the American way of life. It represents hard work, dedication, and a love of the land. In the past, the farm was the backbone of the economy. It was the source of food and fiber for the country, and it provided a way of life for millions of Americans. Even today, the farm remains an important part of American society. However, the farm has changed in many ways over the years. This essay will explore the history and significance of the farm, as well as the changes that have taken place in recent years.
+The history of the farm in America dates back to the colonial period. Early settlers brought with them farming techniques that had been developed in Europe. These techniques were adapted to the new environment and eventually became the basis for American agriculture. The farm played a key role in the growth and development of the country. It provided food for the expanding population, and it also produced raw materials for the growing industries.
+Over the years, the farm has changed in many ways. One of the most significant changes has been the shift from family farms to industrial agriculture. In the past, farms were mostly small-scale operations that were run by families. These farms were often self-sufficient, producing food, fuel, and other necessities for the family. However, as the population grew and the demand for food increased, farms became larger and more specialized. Today, the majority of farms are operated by large corporations that use modern technology and high-input agriculture to maximize productivity and efficiency. This has led to an increase in the use of pesticides, fertilizers, and other chemicals, which has raised concerns about the environmental impact of modern agriculture.
+Another change that has taken place in recent years is the increased focus on sustainability and organic farming. Many farmers are now turning to organic methods of farming, which rely on natural systems and environmentally friendly practices to produce food. This approach emphasizes the use of soil conservation, crop rotation, and other sustainable practices to minimize the use of synthetic inputs. Organic farming has been growing rapidly in recent years, and it is now a significant part of the agricultural economy.
+Despite these changes, the farm remains an important part of American society. It is a symbol of the values and traditions that have made the country great. The farm represents hard work, dedication, and a love of the land. It is a place where families have been raised and where communities have been built. Although the farm has changed over the years, it remains an essential part of the American way of life.
+The challenges that face the farm today are significant. Climate change, rising costs, and the globalization of agriculture are all threats to the future of farming. However, these challenges also present opportunities for innovation and growth. Many farmers are now exploring new ways of farming that are more sustainable, more efficient, and more profitable. These include the use of renewable energy, precision agriculture, and vertical farming.
+Renewable energy is one of the most promising new technologies for farmers. Solar panels, wind turbines, and other renewable energy sources can help farmers reduce their energy costs and improve their bottom line. In addition, renewable energy can help reduce the carbon footprint of farming, which is an important step towards a more sustainable future.
+Precision agriculture is another promising new technology for farmers. This approach uses data analysis, sensors, and other technologies to optimize crop yields and reduce waste. By monitoring soil moisture, temperature, and other factors, farmers can make more informed decisions about when to plant, fertilize, and harvest their crops. This can help reduce the use of fertilizers and other inputs, which is better for the environment and can improve the profitability of farming.
+Vertical farming is a new approach to agriculture that involves growing crops in vertically stacked layers. This approach can help increase the yield of crops, reduce the use of water and pesticides, and improve the efficiency of farming. Vertical farming is still in its early stages, but it has the potential to revolutionize the way we grow food in the future.
+In conclusion, the farm is an important part of American society. It represents the values and traditions that have made the country great. Although the farm has changed in many ways over the years, it remains an essential part of the American way of life. The challenges that face the farm today are significant, but they also present opportunities for innovation and growth. By embracing new technologies and sustainable practices, farmers can help ensure the future of farming and continue to provide food and fiber for the country.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>The Farm</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>['Literature', 'Fiction', 'Post Apocalyptic', 'Imagination', 'Short Story']</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E18" t="n">
+        <v>938</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1678739547</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>chatcmpl-6tj8F5vCWT9oDmU0T2UsFiYeTFloW</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0301</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>chat.completion</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>903</v>
+      </c>
+      <c r="L18" t="n">
+        <v>26</v>
+      </c>
+      <c r="M18" t="n">
+        <v>929</v>
+      </c>
+      <c r="N18" t="n">
+        <v>789</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-149</v>
+      </c>
+      <c r="P18" t="n">
+        <v>38.61821</v>
+      </c>
+      <c r="Q18" s="2" t="n">
+        <v>44998.68920809302</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Farm
+For many people, the farm has always been a symbol of simplicity, hard work, and self-sufficiency. While it may be true that the modern world has given us access to a wide range of conveniences and luxuries, it is also true that the farm continues to play an important role in our lives. Farms not only produce food and other essential items, but they also provide a connection to the natural world, and offer a sense of community that is often lacking in other areas of our lives.
+There are many different types of farms, and each one has its own unique characteristics and challenges. Some farms produce crops, while others raise livestock. Some farmers sell their produce directly to consumers, while others work with wholesalers and distributors to get their products to market. Regardless of the type of farm, however, there are certain common themes that tie them all together.
+One of the most important themes that runs throughout farming is the idea of hard work. Farming is not an easy job. Farmers work long hours, often starting before the sun comes up and finishing well after it goes down. They must be skilled at a wide range of tasks, from planting and harvesting to animal husbandry and equipment maintenance. Farmers must also be able to weather unpredictable weather patterns, pests, and other environmental factors that can negatively impact their crops and livestock.
+Despite these challenges, however, farmers continue to put in the hard work day after day. They do so out of a deep sense of commitment to their craft, and to the people who rely on them for food and other necessities. This sense of dedication is perhaps best exemplified by the way in which farmers work with the land.
+The land is the lifeblood of any farm. It provides the nutrients that crops need to grow, and the space that animals need to graze. Farmers must therefore be intimately familiar with the land on which they work, understanding its soil quality, drainage patterns, and other important factors that impact crop and livestock health. They must also be committed to preserving the land for future generations.
+This commitment to sustainability is an important hallmark of modern farming practices. Many farmers today are adopting more environmentally friendly practices, such as using natural fertilizers and pesticides, rotating crops, and implementing water conservation measures. These practices not only help to protect the environment, but they also help to ensure that the land remains productive for years to come.
+In addition to their commitment to hard work and sustainability, many farmers also place a premium on community. Farming has always been a communal activity, with neighbors working together to help each other with planting, harvesting, and other tasks. This sense of community is perhaps most evident in the rise of farmer's markets and other direct-to-consumer sales models.
+By selling their products directly to consumers, farmers are able to forge strong connections with their local communities. This direct interaction allows farmers to share their knowledge and passion for their work, and gives consumers a chance to learn more about where their food comes from. Farmer's markets also offer a venue for small-scale producers to sell their goods, which may not be possible through traditional distribution channels.
+Despite the challenges of marketing and selling their products, more and more farmers are finding success through direct-to-consumer sales. In addition to selling their goods at farmer's markets, many farmers are also using social media and other online platforms to connect with customers and promote their products. By doing so, they are able to build stronger relationships with their customers, and to create a loyal following that can sustain their business over time.
+In conclusion, the farm remains an important part of our lives, both as a source of food and other necessities, and as a symbol of hard work, sustainability, and community. While it is true that farming is not an easy job, the rewards of this labor are immeasurable. By working the land, farmers are able to forge a connection with the natural world, and to provide for themselves and their families in a way that is deeply satisfying. Additionally, by adopting more sustainable practices and embracing direct-to-consumer sales models, farmers are positioning themselves for long-term success in a world that is increasingly interested in locally sourced, sustainable, and ethically produced goods. For these reasons and more, the farm will continue to play an important role in our lives for generations to come.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>The Farm</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>['Literature', 'Fiction', 'Post Apocalyptic', 'Imagination', 'Short Story']</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E19" t="n">
+        <v>938</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10th grade</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1678739586</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>chatcmpl-6tj8sFTSUv86pmWHLLU6hQLvkLiTz</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0301</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>chat.completion</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>869</v>
+      </c>
+      <c r="L19" t="n">
+        <v>29</v>
+      </c>
+      <c r="M19" t="n">
+        <v>898</v>
+      </c>
+      <c r="N19" t="n">
+        <v>751</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-187</v>
+      </c>
+      <c r="P19" t="n">
+        <v>39.83954</v>
+      </c>
+      <c r="Q19" s="2" t="n">
+        <v>44998.68965511327</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mikhael Subotzky’s Destructive Collage Process Dismantles Depictions of White “Founding Fathers”
+Mikhael Subotzky is a contemporary South African artist who is known for his unique and unconventional approach to photography. His works often question the authenticity of the photographic medium and its ability to provide a truthful depiction of reality. In his series, "Die Vier Hoeke" (The Four Corners), Subotzky takes on the subject of South African history and its representations.
+One of the primary themes explored in "Die Vier Hoeke" is the historical figure of the “founding father”. In the South African context, this figure is overwhelmingly white and male, which has led to an uncritical portrayal in official narratives. Subotzky aims to deconstruct this image and expose the problematic ways in which it has been constructed.
+One of the most striking things about Subotzky’s series is his use of collage. In order to dismantle the myth of the white “founding father”, he takes images from official sources such as textbooks, newspapers and archival material and manipulates them in a destructive way. He tears, crumples and burns them, adding his own marks and scratches. The resulting images are fragmented, almost illegible, and can be read as a metaphor for the incomplete and distorted nature of official histories.
+Subotzky’s use of collage is particularly effective in challenging the notion of the “founding father” as a singular and cohesive figure. By piecing together fragments of different images, he creates a sense of disunity and contradiction. For example, one of his pieces features a portrait of Ndabaningi Sithole, an important anti-apartheid activist, alongside the image of a white man in a suit. The white man’s face has been torn out and replaced with an image of a pummeled rock. The effect is a deconstruction of the conventional idea of the white male founding father, and a reimagining of the politics of South African history.
+Another of Subotzky’s works titled “The Four Corners” features a montage of four images of the historic South African buildings that make up the Union Buildings. Each image is fragmentary, with the architecture distorted, creating the impression of an incomplete structure. The technique of collage in this piece is particularly effective, as it dislocates the viewer and undermines the viewer’s sense of space and place.
+Subotzky’s use of collage has been informed by the work of the avant-garde artists of the early 20th century. These artists, such as Pablo Picasso and Georges Braque, experimented with disassembling and reassembling fragments of images, creating works that were fragmented and abstracted from reality. Subotzky has taken this technique and applied it to the South African context, creating works that challenge the viewer’s assumptions and force them to confront the incomplete and contested nature of official histories.
+Subotzky’s use of destruction and fragmentation is also significant in how it challenges the idea of the photographic medium as a tool for producing objective representations of reality. By tearing, crumpling and burning images, Subotzky highlights the materiality of the photograph and its vulnerability to manipulation. In doing so, he encourages the viewer to question the authenticity of photographic representations and the power dynamics that shape them.
+In conclusion, Mikhael Subotzky’s use of collage in his series “Die Vier Hoeke” is a powerful and effective tool for dismantling the problematic myth of the white male “founding father” in the South African context. His destructive and fragmentary approach exposes the incomplete and contested nature of official histories and highlights the materiality of the photographic medium. By challenging the viewer’s assumptions and dislocating them, Subotzky encourages critical engagement with the photographic image and with histories that have long been taken for granted.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Bit by Bit, Mikhael Subotzky’s Destructive Collage Process Dismantles Depictions of White “Founding Fathers”</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>['Culture', 'Art', 'Photography', 'History', 'South Africa']</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E20" t="n">
+        <v>637</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1678739626</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>chatcmpl-6tj9WzSbn9K1E97U6bXZOjbhusoga</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0301</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>chat.completion</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>798</v>
+      </c>
+      <c r="L20" t="n">
+        <v>55</v>
+      </c>
+      <c r="M20" t="n">
+        <v>853</v>
+      </c>
+      <c r="N20" t="n">
+        <v>605</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-32</v>
+      </c>
+      <c r="P20" t="n">
+        <v>34.771007</v>
+      </c>
+      <c r="Q20" s="2" t="n">
+        <v>44998.69011656874</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Bit by Bit, Mikhael Subotzky’s Destructive Collage Process Dismantles Depictions of White “Founding Fathers”
+Art is a powerful tool that can be used to express opinions on social and political issues. Mikhael Subotzky is an artist who uses his art to bring to light important social issues in South Africa. In his work, Subotzky challenges the traditional depictions of South Africa’s history by dismantling depictions of white “founding fathers” through a destructive collage process.
+Subotzky’s work is particularly interesting because it brings to light a topic that is often not discussed in South Africa. The country has a long history of apartheid and racial tension, and Subotzky’s work highlights the role that white “founding fathers” played in creating and perpetuating this system. By dismantling these depictions, Subotzky is able to expose the flaws and limitations of these figures and challenge the traditional narratives surrounding South Africa’s history.
+What makes Subotzky’s work particularly unique is his use of a destructive collage process. Traditionally, collage is seen as a process of piecing together various elements to create a cohesive whole. However, Subotzky’s approach is different. He takes images of white “founding fathers” and tears them apart, bit by bit, until they are unrecognizable. This approach is powerful because it forces the viewer to confront the destruction and deconstruction of these figures. It also highlights the fragility and impermanence of their legacies.
+In one of his most well-known pieces, “Ponte City,” Subotzky uses this destructive collage process to deconstruct depictions of Johannesburg’s white elite. The piece is named after a prominent apartment building in Johannesburg, which was once the epitome of luxury and exclusivity. However, over time, the building became a symbol of the city’s decline and was taken over by squatters. Subotzky takes images of the building and tears them apart, layer by layer, until they are unrecognizable. The result is a powerful commentary on the fragility and impermanence of whiteness and the structures that support it.
+Another piece, “WYE,” focuses specifically on the role of white “founding fathers” in South Africa’s history. The piece is made up of a series of collages, each of which focuses on a different white South African historical figure. However, instead of highlighting their accomplishments, Subotzky deconstructs their depictions, layer by layer, until they are unrecognizable. The process is slow and methodical, and it forces the viewer to confront the flaws and limitations of these figures. The piece is particularly powerful because it challenges the traditional narratives surrounding South Africa’s history and exposes the role that white “founding fathers” played in creating and perpetuating apartheid.
+Subotzky’s work is a powerful reminder that history is not fixed or permanent. Rather, it is constantly being reinterpreted and reimagined. By deconstructing depictions of white “founding fathers,” Subotzky is able to challenge the dominant narratives surrounding South Africa’s history and expose the flaws and limitations of these figures. This process is essential for creating a more inclusive and just future.
+In conclusion, Mikhael Subotzky’s work is an important commentary on South Africa’s history and the role that white “founding fathers” played in creating and perpetuating apartheid. His use of a destructive collage process is powerful because it forces the viewer to confront the destruction and deconstruction of these figures. By dismantling depictions of these figures, Subotzky is able to challenge the dominant narratives surrounding South Africa’s history and expose the flaws and limitations of these figures. His work is an important reminder that history is not fixed or permanent, and that we must constantly reevaluate and reimagine it if we hope to create a more inclusive and just future.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Bit by Bit, Mikhael Subotzky’s Destructive Collage Process Dismantles Depictions of White “Founding Fathers”</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>['Culture', 'Art', 'Photography', 'History', 'South Africa']</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E21" t="n">
+        <v>637</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>10th grade</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1678739661</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>chatcmpl-6tjA5fapbbcCaPW277YGdY4QSfVL4</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0301</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>chat.completion</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>808</v>
+      </c>
+      <c r="L21" t="n">
+        <v>58</v>
+      </c>
+      <c r="M21" t="n">
+        <v>866</v>
+      </c>
+      <c r="N21" t="n">
+        <v>599</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-38</v>
+      </c>
+      <c r="P21" t="n">
+        <v>36.883139</v>
+      </c>
+      <c r="Q21" s="2" t="n">
+        <v>44998.69051910444</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Probability vs Likelihood
+Probability and likelihood are two fundamental concepts in statistics that are often used interchangeably but possess distinct meanings and applications. Despite their close association with one another, probability and likelihood have different interpretations and uses in solving real-world problems.
+Probability is a numerical representation of the likelihood that an event will occur. The probability of an event is expressed as a value ranging from 0 to 1, where 0 means the event will never happen and 1 means the event will always happen. Probability is used to predict outcomes based on data and to determine the likelihood of future events.
+On the other hand, likelihood is a measure of how well a set of data supports a particular hypothesis. It is not a probability, but rather an indicator of how well a statistical model fits the observed data. The likelihood function is used to estimate the parameters of a statistical model that are most likely to produce the observed data.
+The primary difference between probability and likelihood is that probability is used to predict the likelihood of future events, while likelihood is used to estimate the parameters of a statistical model that best fit the observed data. Probability is based on the assumption that the probability distribution for a particular event is known, while likelihood does not require the assumption of a probability distribution. Probability is also used to calculate the expected value of a random variable, while likelihood does not provide a measure of expected value.
+To understand the difference between probability and likelihood, it is essential to consider some examples. Suppose a coin is tossed, and we are interested in the probability of getting heads. The probability of getting heads is 0.5, assuming a fair coin. This means that for every two coin tosses, we expect one to yield heads. However, if we have a biased coin, the probability of getting heads will be different, and we need to determine the probability distribution of the coin to estimate the probability.
+Likelihood, on the other hand, is used to estimate the parameters of a statistical model. For instance, suppose we have a sample of 100 people, and we want to estimate the mean height of the population. We measure the height of each person in the sample and obtain a sample mean. The likelihood function can be used to estimate the parameters of the population, such as mean and standard deviation. In this case, the likelihood function provides the most likely values for these parameters, given the observed data.
+Another crucial difference between probability and likelihood is that probability deals with events that have already occurred, while likelihood deals with events that may happen in the future. Probability is based on past observations, while likelihood is based on the probability of future events.
+To illustrate this point further, suppose we want to predict the likelihood of a student passing a math test. We may look at the student's performance in past math tests, their study habits, and other relevant factors to predict whether they will pass the test. In this case, probability is used to predict the future event based on past observations.
+Likelihood, on the other hand, is used to estimate the probability of future events based on current data. For instance, suppose we want to estimate the likelihood of a particular team winning a game. We may look at the current performance of the team, the performance of their opponents, and other relevant factors to estimate the probability of their winning the game. In this case, likelihood is used to predict the future event based on current observations.
+In summary, probability and likelihood are two distinct concepts that are often used interchangeably. Probability is used to predict the likelihood of future events based on past observations, while likelihood is used to estimate the parameters of a statistical model that best fit the observed data. Probability deals with events that have already occurred, while likelihood deals with events that may happen in the future. Both concepts are essential in solving real-world problems and are fundamental to statistical analysis. Understanding the difference between probability and likelihood is crucial for making informed decisions based on data.
+In conclusion, probability and likelihood are both important concepts that are used in statistics and data analysis to make predictions and estimates. While they are often used interchangeably, they have distinct meanings and applications. Probability is used to predict outcomes based on past observations, while likelihood is used to estimate the parameters of a statistical model that best fit the observed data. Both concepts have important applications in solving real-world problems, and understanding their differences is crucial for making informed decisions based on data.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Probability vs Likelihood</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>['Likelihood', 'Statistics', 'Maximum Likelihood', 'Probability', 'Machine Learning']</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E22" t="n">
+        <v>886</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>10th grade</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1678739698</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>chatcmpl-6tjAgVCVtnmcvewh4oqiipixGPZDQ</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0301</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>chat.completion</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>884</v>
+      </c>
+      <c r="L22" t="n">
+        <v>31</v>
+      </c>
+      <c r="M22" t="n">
+        <v>915</v>
+      </c>
+      <c r="N22" t="n">
+        <v>783</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-103</v>
+      </c>
+      <c r="P22" t="n">
+        <v>34.997551</v>
+      </c>
+      <c r="Q22" s="2" t="n">
+        <v>44998.69094625316</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Probability and likelihood are two important concepts in statistics that are often used interchangeably. However, despite their apparent similarity, these concepts have different meanings and applications. Probability is a measure of the likelihood of an event occurring, whereas likelihood is a measure of the plausibility of a hypothesis given observed data. Understanding the difference between these concepts is crucial for anyone working with data in any field, and especially in the field of statistics and data analysis.
+Probability is a quantitative measure of the likelihood of an event occurring. It is expressed in terms of a number between 0 and 1, where 0 indicates that the event is impossible and 1 indicates that the event is certain. For instance, the probability of flipping a coin and getting heads is 0.5, since there are two possible outcomes, and each outcome has an equal chance of occurring. Probability theory provides a rigorous framework for analyzing uncertain events and making predictions about the likelihood of future outcomes.
+Likelihood, on the other hand, is a measure of the plausibility of a hypothesis given observed data. It is expressed in terms of a likelihood function, which quantifies the degree of agreement between the data and the hypothesis. The likelihood function is used to estimate the parameters of a statistical model, which is used to make predictions about future data. For example, if we have a sample of data from a population, we can use the likelihood function to estimate the parameters of a normal distribution that best fits the observed data. The fitted normal distribution can then be used to make predictions about future data that is sampled from the same population.
+The difference between probability and likelihood can be illustrated through an example. Consider the following scenario: A patient comes to a doctor with a cough and a fever. The doctor performs a test for pneumonia, which has a 95% sensitivity and a 95% specificity. The test comes back positive. What is the probability that the patient has pneumonia?
+To answer this question, we can use Bayes' theorem, which states that the posterior probability of a hypothesis given observed data is proportional to the likelihood of the data given the hypothesis multiplied by the prior probability of the hypothesis. In this case, the hypothesis is that the patient has pneumonia, and the data is the positive test result.
+Let P(p) be the prior probability that the patient has pneumonia, and let P(pos|p) be the probability of a positive test result given that the patient has pneumonia. Similarly, let P(neg|~p) be the probability of a negative test result given that the patient does not have pneumonia. Then, according to Bayes' theorem, the posterior probability that the patient has pneumonia given a positive test result is:
+P(p|pos) = P(pos|p)P(p) / [P(pos|p)P(p) + P(pos|~p)P(~p)]
+Using the values given in the problem, we have:
+P(p|pos) = 0.95 x P(p) / [0.95 x P(p) + 0.05 x (1-P(p))]
+This equation shows that the probability of the patient having pneumonia given a positive test result depends on the prior probability of pneumonia. If the prior probability of pneumonia is high, then the positive test result is more likely to be true, and the posterior probability of pneumonia is also high. Conversely, if the prior probability of pneumonia is low, then the positive test result is less likely to be true, and the posterior probability of pneumonia is also low.
+Likelihood, on the other hand, is not affected by the prior probability of pneumonia. The likelihood function simply measures the agreement between the observed data (positive test result) and the hypothesis (patient has pneumonia). The likelihood function is given by:
+L(p|pos) = P(pos|p)
+This equation shows that the likelihood of the hypothesis (patient has pneumonia) given the observed data (positive test result) is simply the probability of a positive test result given that the patient has pneumonia. This value is fixed at 0.95, regardless of the prior probability of pneumonia.
+Thus, we can see that probability and likelihood have different meanings and applications. Probability is a measure of the likelihood of an event occurring, whereas likelihood is a measure of the plausibility of a hypothesis given observed data. Probability is affected by the prior probability of an event, whereas likelihood is not. Probability theory is used to make predictions about uncertain events, whereas likelihood is used to estimate the parameters of a statistical model.
+In conclusion, understanding the difference between probability and likelihood is crucial for anyone working with data in any field. These concepts are often used interchangeably, but they have distinct meanings and applications. Probability is a measure of the likelihood of an event occurring, whereas likelihood is a measure of the plausibility of a hypothesis given observed data. Probability is affected by the prior probability of an event, whereas likelihood is not. Probability theory is used to make predictions about uncertain events, whereas likelihood is used to estimate the parameters of a statistical model. By understanding these concepts, we can make better decisions based on data and improve our ability to analyze and interpret complex phenomena.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Probability vs Likelihood</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>['Likelihood', 'Statistics', 'Maximum Likelihood', 'Probability', 'Machine Learning']</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E23" t="n">
+        <v>886</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1678739733</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>chatcmpl-6tjBFa363CMsT4d1th103AkYSg4JG</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0301</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>chat.completion</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1043</v>
+      </c>
+      <c r="L23" t="n">
+        <v>28</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1071</v>
+      </c>
+      <c r="N23" t="n">
+        <v>848</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-38</v>
+      </c>
+      <c r="P23" t="n">
+        <v>45.624256</v>
+      </c>
+      <c r="Q23" s="2" t="n">
+        <v>44998.69135136909</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The Roman gladiators were some of the most infamous and fascinating figures in ancient Roman society. Often slaves or criminals, these men fought in massive arenas for the entertainment of the masses. But what were the chances of survival as a Roman gladiator? While there is no clear answer to this question, many historians believe that the odds of survival were quite low.
+Firstly, it is important to understand that being a gladiator was an incredibly dangerous profession. In the arena, these men fought with weapons such as swords, spears, and tridents, facing off against other gladiators or against wild animals such as lions and tigers. These battles were often to the death, with the audience cheering on their favorite combatants until the bitter end.
+Furthermore, gladiators were often trained to fight in specific styles, meaning that they may not have had a versatile skillset when it came to different types of fighting. This lack of versatility could put them at a disadvantage in the arena, especially if they were facing off against an opponent with a different skillset.
+Additionally, gladiators were often owned by wealthy and powerful individuals who had a financial interest in their success. This meant that gladiators were often pitted against opponents who were weaker or less skilled than they were, in order to ensure that the crowd was satisfied and that the gladiator lived to fight another day.
+However, despite these factors, there were some gladiators who managed to survive for years in the arena. These men were often highly skilled warriors who were able to adapt to different fighting styles and train themselves to be able to predict their opponents' moves. They were also able to develop a level of showmanship that was highly valued in the arena, captivating the audience with their acrobatics and maneuvers.
+But no matter how skilled a gladiator was, there were always risks involved in stepping into the arena. Even the most well-trained and experienced fighters could be killed or gravely injured at any moment, and the slightest mistake could mean the difference between life and death.
+So what were the chances of survival as a Roman gladiator? Again, there is no clear answer. Some historians believe that as many as one in five gladiators died in the arena, while others estimate that the death rate was much higher. However, there were also gladiators who managed to survive for years in the arena, becoming beloved figures in their own right.
+In the end, the life of a gladiator was one of constant danger and uncertainty. While some managed to achieve great success and even fame, the odds were against them from the start. But despite the risks, the gladiators of ancient Rome continued to fight, pushing themselves to the brink of their abilities and entertaining the masses with their bravery and skill.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>What Were the Chances of Survival as a Roman Gladiator?</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>['Roman', 'Life', 'History', 'Culture', 'Lifestyle']</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E24" t="n">
+        <v>537</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>10th grade</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1678739778</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>chatcmpl-6tjByTRuX7dBUwGwh0zWmuMaNVAfb</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0301</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>chat.completion</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>562</v>
+      </c>
+      <c r="L24" t="n">
+        <v>39</v>
+      </c>
+      <c r="M24" t="n">
+        <v>601</v>
+      </c>
+      <c r="N24" t="n">
+        <v>473</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-64</v>
+      </c>
+      <c r="P24" t="n">
+        <v>23.912373</v>
+      </c>
+      <c r="Q24" s="2" t="n">
+        <v>44998.69187971778</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Roman gladiators were among the most admired and feared warriors of their time. Their battles were a source of entertainment for the Romans, who loved watching two or more gladiators fight to the death. However, the life of a gladiator was a challenging one, with little to no chance of survival.
+Gladiators came from all walks of life. Some were slaves, while others were free men who had volunteered for the role. Regardless of their background, they all shared one common characteristic – they were all fighters. They had been trained to fight with various weapons, including swords, shields, and tridents, and had spent countless hours practicing their moves.
+Despite their training, the chances of survival for a gladiator were slim. Many gladiators died in the arena, and those who survived often suffered from severe injuries. The most common cause of death for gladiators was due to blood loss, which occurred when they sustained deep wounds from their opponents' weapons.
+Gladiators were also at risk of developing infections that could lead to death. The arenas where they fought were often dirty and unsanitary, making it easy for bacteria to spread. Additionally, gladiators would often be forced to fight while injured or sick, which could exacerbate their condition.
+The odds of survival for a gladiator were also influenced by their opponent. Some gladiators would be matched against weaker opponents, while others would be pitted against stronger, more experienced fighters. The type of weapons that each gladiator was allowed to use would also impact their chances of survival. For example, a gladiator who was skilled with a sword would be at a disadvantage if they were forced to fight with a trident.
+To make matters worse, gladiators were often mistreated by their owners. They were viewed as property rather than people and were forced to fight regardless of whether they wanted to or not. Gladiators were often subjected to brutal training regimes and were punished severely if they did not perform well in the arena.
+Despite the dangers and mistreatment, some gladiators managed to survive. These survivors were often viewed as heroes by the crowds who watched them fight. They would be given gifts and accolades, and in some cases, they would be granted their freedom.
+In conclusion, the chances of survival for a Roman gladiator were low. Gladiators faced a variety of risks, including death from blood loss or infection, injury, and mistreatment by their owners. Their chances of survival were also influenced by their opponents, the weapons they were allowed to use, and their level of training. Despite the challenges, some gladiators managed to survive and even gain fame and fortune. However, for most gladiators, their life was short and brutal, and their legacy lives on as a reminder of the brutality of ancient Roman society.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>What Were the Chances of Survival as a Roman Gladiator?</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>['Roman', 'Life', 'History', 'Culture', 'Lifestyle']</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E25" t="n">
+        <v>537</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1678739802</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>chatcmpl-6tjCMQXf22uq8mQAWlJf9bZuzykXK</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0301</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>chat.completion</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>573</v>
+      </c>
+      <c r="L25" t="n">
+        <v>36</v>
+      </c>
+      <c r="M25" t="n">
+        <v>609</v>
+      </c>
+      <c r="N25" t="n">
+        <v>466</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-71</v>
+      </c>
+      <c r="P25" t="n">
+        <v>24.244455</v>
+      </c>
+      <c r="Q25" s="2" t="n">
+        <v>44998.69215653242</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+It was the Zoom Thanksgiving that none of us had ever experienced before. As we all gathered virtually to enjoy a feast of turkey and dressing, I couldn't help but imagine what it would be like if my relatives were Jane Austen characters. 
+First, there was my aunt Susan, who reminded me of Mrs. Bennet from Pride and Prejudice. Like Mrs. Bennet, my aunt was always eager to marry off her daughters to wealthy suitors. She would often make remarks about how my female cousins needed to find a good husband to take care of them. Her obsession with finding matches for her daughters was both endearing and amusing, just like Mrs. Bennet.
+Then, there was my grandfather George, who reminded me of Mr. Woodhouse from Emma. Like Mr. Woodhouse, my grandpa was a bit of a hypochondriac, always worried about his health and the health of those around him. He would often ask if we had washed our hands or taken our vitamins, just like Mr. Woodhouse's concern for the freshness of his apple pies. 
+Next, there was my cousin Emily, who reminded me of Marianne Dashwood from Sense and Sensibility. Like Marianne, Emily was a hopeless romantic who often got swept up in her feelings. She would often talk about how she was waiting for love and would quote poetry to describe her emotions. Watching her reminded me of Marianne swooning over Willoughby.
+My uncle Jack reminded me of Mr. Collins from Pride and Prejudice. Like Mr. Collins, my uncle was pompous and always eager to please those in authority. He would often make long-winded speeches about his achievements and would try to impress others with his knowledge. Listening to him reminded me of Mr. Collins's proposal to Elizabeth Bennett.
+My grandmother Mary reminded me of Lady Catherine De Bourgh from Pride and Prejudice. Like Lady Catherine, my grandmother was opinionated and always spoke her mind. She would often give unsolicited advice and would talk about how things used to be in her day. Her strong personality reminded me of Lady Catherine's disapproval of Elizabeth's social standing.
+My cousin Ethan reminded me of Captain Wentworth from Persuasion. Like Captain Wentworth, Ethan was confident and charming. He would often tell stories about his adventures and would have everyone in stitches with his jokes. He had a magnetic personality that reminded me of Captain Wentworth's charisma.
+Finally, there was my mom. She reminded me of Elizabeth Bennett from Pride and Prejudice. Like Elizabeth, my mom was independent and strong-willed. She would often stand up for herself and others and would never back down from a challenge. Her quick wit and intelligence reminded me of Elizabeth's sharp tongue.
+As we all sat around our screens, chatting and catching up on each other's lives, I couldn't help but be grateful for my family. Although they may not be perfect, they are quirky and unique, just like the characters in Jane Austen's novels. Our Zoom Thanksgiving may have been different from previous years, but it was still a time for us to come together and celebrate the bond between family.
+In conclusion, imagining my relatives as Jane Austen characters added a new layer of depth and complexity to my understanding of them. It was a fun exercise that allowed me to appreciate their similarities and differences to Austen's famous characters. Whether it was my aunt Susan playing matchmaker or my cousin Emily swooning over love, there was always an element of Austen-esque charm to our interactions. Despite the challenges of social distancing, our virtual Thanksgiving managed to capture the spirit of togetherness and gratitude that is at the heart of this holiday.</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Your Relatives at Zoom Thanksgiving If They Were Jane Austen Characters</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>['Books', 'Literature', 'Family', 'Humor', 'Thanksgiving']</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E26" t="n">
+        <v>613</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>10th grade</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1678739826</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>chatcmpl-6tjCkdeAW08JCTtNkIQRluvM7GPzK</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0301</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>chat.completion</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>749</v>
+      </c>
+      <c r="L26" t="n">
+        <v>39</v>
+      </c>
+      <c r="M26" t="n">
+        <v>788</v>
+      </c>
+      <c r="N26" t="n">
+        <v>609</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-4</v>
+      </c>
+      <c r="P26" t="n">
+        <v>31.98959</v>
+      </c>
+      <c r="Q26" s="2" t="n">
+        <v>44998.69243754839</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+As the pandemic continues to affect our everyday lives, many families are forced to find creative ways to celebrate Thanksgiving. This year, many will be celebrating with their relatives over Zoom, which poses a new challenge in terms of communication and interaction. To add a touch of fun to this year's festivities, let's imagine what our relatives would be like if they were characters from the novels of the celebrated author Jane Austen.
+Firstly, there is Aunt Mary. Always eager to share her opinions and advice, Aunt Mary embodies the character of Lady Catherine de Bourgh from Pride and Prejudice. She is the kind of person who speaks with authority on all subjects and expects everyone to follow her lead. Aunt Mary is never satisfied with anything and always has something to criticize. She is quick to judge and is never hesitant to express her disapproval. In this year's virtual Thanksgiving, we can expect Aunt Mary to dominate the conversation and offer her unsolicited advice on every subject.
+Next is Uncle George, who represents the character of Mr. Bennet from Pride and Prejudice. Uncle George is a quiet and reserved person who prefers to spend his time in his study or out in the garden. He is not interested in the gossip and frivolities of the world and is content to keep to himself. Like Mr. Bennet, Uncle George is witty and sarcastic, but he uses his humor to mask his feelings of disappointment and disillusionment. During Thanksgiving, Uncle George will stay in the background, only contributing to the conversation when necessary.
+Cousin Lucy is the character who embodies the traits of Lydia Bennet from Pride and Prejudice. She is loud and boisterous, always seeking attention and trying to impress others. Cousin Lucy is the life of the party, always ready to dance, sing, and make jokes. She is impulsive and does not think about the consequences of her actions. Like Lydia, Cousin Lucy is often the center of attention and can be a bit of a troublemaker. During this year's virtual Thanksgiving, Cousin Lucy will be the one who keeps everyone entertained with her antics.
+Grandma Catherine is the character who most closely resembles Elinor Dashwood from Sense and Sensibility. She is calm, composed, and always tries to see the best in everyone. Despite her calm exterior, Grandma Catherine has a strong will and is not afraid to speak her mind when necessary. She is kind and thoughtful, always putting the needs of others before her own. During the Zoom Thanksgiving, Grandma Catherine will be the voice of reason in a chaotic and unpredictable environment.
+Uncle John is the character who most resembles Frank Churchill from Emma. He is charming, attractive, and always seems to know the right thing to say. Uncle John is the life of the party and is always surrounded by admirers. Despite his charming exterior, Uncle John is not always honest and can be a bit of a schemer. He is more interested in his own self-promotion than the needs of others. During the virtual Thanksgiving, Uncle John will be the one who flirts with all the women and tries to impress everyone with his charm.
+Finally, there is Cousin Anne, who embodies the character of Anne Elliot from Persuasion. She is quiet and reserved, always trying to blend into the background. Cousin Anne is intelligent and thoughtful, but often lacks the confidence to express her opinions. She is sensitive and caring, always considering the needs of others before her own. Cousin Anne is a loyal friend and a supportive cousin. During the Zoom Thanksgiving, Cousin Anne will be the one who offers a listening ear and a shoulder to cry on.
+In conclusion, this year's Thanksgiving may look a little different, but it can still be a fun and entertaining event. By imagining our relatives as Jane Austen characters, we can bring a touch of whimsy to the proceedings and create a new way of interacting and connecting with our loved ones. Whether you have an Aunt Mary, Uncle George, Cousin Lucy, Grandma Catherine, Uncle John, or Cousin Anne in your family, they all have something unique and interesting to bring to the table. So, pour yourself a cup of tea, sit back, and enjoy the company of your family, even if it's only through a computer screen. Happy virtual Thanksgiving!</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Your Relatives at Zoom Thanksgiving If They Were Jane Austen Characters</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>['Books', 'Literature', 'Family', 'Humor', 'Thanksgiving']</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E27" t="n">
+        <v>613</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1678739858</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>chatcmpl-6tjDGLHnzy9kEDlhyloOPTmjnFk5i</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0301</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>chat.completion</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>872</v>
+      </c>
+      <c r="L27" t="n">
+        <v>36</v>
+      </c>
+      <c r="M27" t="n">
+        <v>908</v>
+      </c>
+      <c r="N27" t="n">
+        <v>727</v>
+      </c>
+      <c r="O27" t="n">
+        <v>114</v>
+      </c>
+      <c r="P27" t="n">
+        <v>35.754134</v>
+      </c>
+      <c r="Q27" s="2" t="n">
+        <v>44998.69280786203</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Heroes have always been a significant part of human history. From ancient mythology to modern day, people have looked up to and idolized certain individuals as their heroes. Some heroes are mythical or legendary figures from the past, while other heroes are modern-day activists, pioneers, and innovators. Regardless of who they are, heroes have the power to inspire us, and they play a crucial role in shaping our beliefs and values. It is essential to clarify our beliefs based on the heroes we choose to follow, and one way to do this is by humanizing our heroes.
+Humanizing our heroes means that we need to understand and acknowledge the fact that they are not perfect. They have flaws, make mistakes, and are just like any other human beings. By humanizing our heroes, we can avoid the pitfalls of blind idolization and unrealistic expectations. Instead, we can see them as real people, learn from their experiences, and mold our beliefs based on their successes and failures.
+One of the most significant benefits of humanizing our heroes is gaining clarity about our beliefs. Heroes often stand for certain values, and their actions demonstrate those values in action. By studying their lives, we can gain insights about our own belief systems and clarify what we stand for. For example, Gandhi is an iconic hero known for his nonviolent approach to social change. By humanizing Gandhi, we can see that he struggled with several personal issues, including his temper, his relationship with his wife, and his role as a father. However, despite his flaws, Gandhi remained steadfast in his commitment to nonviolence and peace, and his actions inspired millions of people worldwide. By studying Gandhi's life, we can gain clarity about our own values and beliefs regarding nonviolence, social justice, and equality.
+Another advantage of humanizing our heroes is that it helps us develop our critical thinking skills. Heroes often have complex and controversial legacies, and by examining their lives, we can develop our ability to analyze and evaluate different perspectives. For example, Martin Luther King Jr. is a hero who is widely celebrated for his leadership in the Civil Rights Movement. However, he also faced criticism from some African American activists who thought he was too moderate and was not doing enough to challenge the status quo. By humanizing King, we can understand that he struggled with the pressure of leadership, faced personal and political setbacks, and was willing to change his beliefs when confronted with new evidence. By examining King's legacy from different angles, we can develop our critical thinking skills and gain a more nuanced understanding of the complexities of social change.
+Humanizing our heroes also helps us avoid the dangers of hero worship. Heroes often become larger than life, and their images are used to promote political and social agendas. However, when we idolize heroes, we risk losing sight of their humanity and the context that shaped their actions. Humanizing heroes means acknowledging their flaws, understanding the limitations of their perspectives, and recognizing that their legacies are complex and open to interpretation. By doing so, we can avoid the pitfalls of blindly following heroes without questioning their motivations or the impact of their actions.
+Finally, humanizing our heroes can inspire us to become better versions of ourselves. When we see heroes as real people who faced their struggles and overcame obstacles, we can see that it is possible to achieve greatness in our lives as well. By studying their biographies and understanding their values and motivations, we can learn from their experiences and apply those lessons to our own lives. For example, Nelson Mandela is a hero who fought against apartheid in South Africa and spent 27 years in prison for his beliefs. However, instead of becoming bitter, he emerged as a unifying figure who worked to bring his country together after decades of division. By humanizing Mandela, we can see that he had to overcome tremendous adversity, but he did so with grace, dignity, and resilience. By learning from his example, we can become more compassionate, resilient, and visionary in our own lives.
+In conclusion, humanizing our heroes is an essential step towards clarifying our beliefs and values. By acknowledging their flaws, understanding their contexts, and evaluating their legacies, we can gain insights about our own belief systems, develop critical thinking skills, avoid the dangers of hero worship, and become inspired to become better versions of ourselves. Heroes play a crucial role in shaping our worldviews, and by humanizing them, we can ensure that their impact is positive, transformative, and lasting.</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Clarify Your Beliefs by Humanizing Your Heroes</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>['Self Improvement', 'Stoicism', 'Philosophy', 'Belief', 'History']</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E28" t="n">
+        <v>645</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1678739894</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>chatcmpl-6tjDqVNmLNXryw91KznSmIg5RWCz3</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0301</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>chat.completion</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>900</v>
+      </c>
+      <c r="L28" t="n">
+        <v>34</v>
+      </c>
+      <c r="M28" t="n">
+        <v>934</v>
+      </c>
+      <c r="N28" t="n">
+        <v>762</v>
+      </c>
+      <c r="O28" t="n">
+        <v>117</v>
+      </c>
+      <c r="P28" t="n">
+        <v>38.820124</v>
+      </c>
+      <c r="Q28" s="2" t="n">
+        <v>44998.693221882</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Many people have heroes they look up to, from sports stars to historical figures. While these heroes can be inspirational, it's important to humanize them and understand their flaws and struggles to clarify our beliefs. By doing so, we can gain a better understanding of ourselves and the world around us.
+Firstly, it's important to recognize that heroes are not perfect. They may have made mistakes, held controversial beliefs or engaged in unethical behavior. For example, Thomas Edison, a famous inventor, was known for his rivalry with Nikola Tesla and his treatment of his employees. However, this doesn't diminish his contributions to science and technology. By acknowledging his flaws, we can appreciate his accomplishments while also being critical of his actions.
+Similarly, it's important to recognize the struggles that heroes faced. For instance, Rosa Parks, a civil rights activist, was arrested for refusing to give up her seat on a segregated bus. While she is celebrated for her bravery, it's important to understand that she faced tremendous pressure and backlash from society. By recognizing her struggles, we can appreciate her courage while also recognizing the injustices that she fought against.
+By humanizing heroes, we can develop a better understanding of ourselves. For example, if we look at the struggles of artists like Van Gogh or Frida Kahlo, we can see that their art was often a reflection of their inner turmoil. Their paintings were a way for them to express their emotions and process their experiences. We can learn from this by recognizing that our own struggles and hardships can be a source of inspiration and creativity.
+Furthermore, humanizing heroes can help us develop empathy and understanding for others. By recognizing the struggles and flaws of our heroes, we can appreciate the struggles of those around us. For instance, if we look at the life of Nelson Mandela, we can see that his struggles for justice and equality were not just his own, but also those of millions of South Africans. By understanding his journey, we can develop a better understanding of the struggles of others who fight for justice and equality.
+Additionally, humanizing heroes can help us recognize the importance of diverse perspectives. If we only celebrate heroes who fit a certain mold, we limit our understanding of the world. Instead, by recognizing and celebrating the contributions of individuals from different backgrounds and experiences, we can gain a more nuanced understanding of the world.
+Moreover, humanizing heroes can help us clarify our beliefs. By understanding the values and beliefs that motivated our heroes, we can develop a better understanding of our own values and beliefs. For example, if we look at the life of Harriet Tubman, we can see that her actions were motivated by a deep belief in the dignity and worth of all people. By recognizing her motivations, we can more clearly understand our own beliefs about justice and equality.
+In conclusion, humanizing heroes is an important exercise in developing a better understanding of ourselves and the world around us. By recognizing the flaws and struggles of our heroes, we can better appreciate their accomplishments and contributions. Additionally, by humanizing heroes, we can develop empathy and understanding for others, recognize the importance of diverse perspectives, and clarify our own beliefs. Ultimately, by humanizing heroes, we can gain a deeper appreciation of the complexity and richness of the human experience.</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Clarify Your Beliefs by Humanizing Your Heroes</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>['Self Improvement', 'Stoicism', 'Philosophy', 'Belief', 'History']</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E29" t="n">
+        <v>645</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>10th grade</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1678739933</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>chatcmpl-6tjETMouzUGjnzUosDi6JwnoshLmZ</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0301</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>chat.completion</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>657</v>
+      </c>
+      <c r="L29" t="n">
+        <v>37</v>
+      </c>
+      <c r="M29" t="n">
+        <v>694</v>
+      </c>
+      <c r="N29" t="n">
+        <v>562</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-83</v>
+      </c>
+      <c r="P29" t="n">
+        <v>27.569777</v>
+      </c>
+      <c r="Q29" s="2" t="n">
+        <v>44998.69367124307</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Visualizing Overland Travel, When All Roads Led to Rome
+The ancient Roman Empire was one of the greatest civilizations to have ever existed. Spanning for centuries, their rule was marked by impressive feats of engineering, artistic creativity, military might, and economic power. But one of the most notable achievements of the Roman Empire was their road network. The Romans were pioneers of urban planning and transportation infrastructure. Their roads connected cities, military outposts, and trade routes, making it easier for people to travel across vast distances. The roads were so well-built that some of them still exist today, withstanding the test of time and weather. This essay explores how the Roman roads revolutionized overland travel and how they contributed to the expansion of the empire.
+The Roman road system started in the early 3rd century BC, at the height of the Roman Republic. The first road was called the Via Appia, and it connected Rome to Capua, a city in southern Italy. The Via Appia was not only a physical pathway; it was also a symbol of Rome's power and dominance. It showed their ability to connect different regions of Italy and conquer other lands. From there, the Romans continued to lay down roads all over the empire, from the Iberian Peninsula to the Middle East. By the end of the 2nd century AD, the empire had more than 400,000 kilometers of roads, with some stretching as far as Britain and the Black Sea.
+The Roman roads were impressive for their engineering and design. They were made of several layers, with the bottom layer consisting of large stones and gravel, followed by a layer of smaller stones, and finally a layer of paving blocks. The roads were built to last, with a slight curve in the middle to allow for water to run off and prevent flooding. The road network was supervised by government officials called curatores, who were responsible for maintaining the roads and ensuring they were safe for travel.
+The Roman roads were not only important for military and economic purposes; they also had a significant impact on culture and society. The roads made it easier for people to travel and exchange ideas, goods, and beliefs. People could move from one city to another, bringing with them their customs and traditions. This allowed for cultural diffusion, which helped create a more diverse and pluralistic society. The Roman roads also enabled the spread of Christianity, which became the official religion of the empire in the 4th century AD. Missionaries like Saint Paul used the roads to evangelize and spread the message of the Gospel.
+The Roman roads also played a crucial role in the expansion of the empire. The roads allowed for faster movement of armies and supplies, making it easier for the Romans to conquer new lands. The empire's borders were constantly expanding, reaching as far east as Persia and as far north as Scotland. The Roman roads were essential for maintaining control over such a vast territory. They allowed for quick mobilization of troops, making it easier to put down rebellions and uprisings. The roads also made it easier for the Roman government to collect taxes, as they could travel more efficiently from one region to another.
+The Roman roads also had a significant impact on trade and commerce. The roads connected different parts of the empire and made it easier for merchants to transport goods. Trade flourished under the Roman Empire, with goods like olive oil, wine, and textiles being exchanged across the Mediterranean. The roads also enabled the spread of technology and innovations. For example, the Pax Romana, a period of relative peace and stability, encouraged scientific advancements in areas like architecture, engineering, and medicine. The roads made it easier for scholars and scientists to share their knowledge and discoveries.
+In conclusion, the Roman road network was one of the most impressive achievements of the ancient world. These roads connected different regions of the empire, enabling faster travel, cultural diffusion, and economic prosperity. The roads also played an essential role in the expansion of the empire, allowing the Romans to conquer new lands and maintain control over a vast territory. The legacy of the Roman roads can still be seen today, with some segments still in use and serving as a reminder of the great achievements of the Roman Empire. The Roman roads showed the power of human ingenuity and determination, and they continue to inspire us today.</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Visualizing Overland Travel, When All Roads Led to Rome</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>['Roadmaps', 'Maps', 'Roman Empire', 'History', 'Data Visualization']</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>737</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>10th grade</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1678739961</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>chatcmpl-6tjEvCQDkehcxYZ3netrB8HY3xCz5</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0301</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>chat.completion</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>870</v>
+      </c>
+      <c r="L30" t="n">
+        <v>39</v>
+      </c>
+      <c r="M30" t="n">
+        <v>909</v>
+      </c>
+      <c r="N30" t="n">
+        <v>743</v>
+      </c>
+      <c r="O30" t="n">
+        <v>6</v>
+      </c>
+      <c r="P30" t="n">
+        <v>31.704756</v>
+      </c>
+      <c r="Q30" s="2" t="n">
+        <v>44998.69399075815</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+When we think of Ancient Rome, we often associate it with its grand architecture, impressive military conquests, and notorious emperors. However, what we often overlook is the vast network of roads that connected the empire, allowing for trade and travel across its vast territory. These roads were integral to the success and expansion of the Roman Empire, and visualizing overland travel during this time can provide us with a deeper understanding of Ancient Rome's achievements and impact on our world today.
+The Roman road system was impressive in its scale and organization. Spanning over 250,000 miles, it connected all parts of the empire, from modern-day Portugal to Syria, and from Britain to Egypt. These roads were not simply dirt paths; they were made of multiple layers of materials, including gravel, sand, and clay. The top layer was typically made of large, flat stones, called basalt, while the sides were lined with ditches to collect water and prevent erosion. The roads were also straight and relatively level, allowing for quick and efficient travel.
+One of the most famous Roman roads was the Appian Way, which ran south from Rome to the port of Brindisi. The Appian Way was built in 312 BCE by the Roman censor Appius Claudius Caecus, and it quickly became one of the most important roads in the empire. It was a major trade route, connecting Rome to the rich farmlands of Southern Italy and the Greek colonies in the eastern Mediterranean. The road was also used for military purposes, allowing Roman armies to move quickly and efficiently across the empire.
+Visualizing overland travel during the time of Ancient Rome allows us to understand its impact on the economy and daily life of the people. The Roman road system made trade and commerce much easier, allowing goods to be transported quickly and efficiently across the empire. The roads also contributed to the growth of cities, as they allowed for easier movement of people and resources. This increased trade and movement of people also led to the spread of ideas and culture throughout the empire, allowing for the development of a unified Roman identity.
+The road system also had a significant impact on the military tactics of Ancient Rome. The roads allowed Roman armies to move quickly and efficiently across the empire, giving them a significant advantage over their enemies. Roman armies could move over 20 miles per day on these roads, compared to the 10 miles per day that was typical for armies at the time. The roads also provided a way for Roman commanders to quickly and easily communicate with their troops, making it easier to coordinate large-scale military operations.
+In addition to their practical uses, the Roman roads were also a symbol of Roman power and achievement. The impressive scale and organization of the road system was a testament to the engineering and organizational capabilities of the Roman Empire. The roads were also used as a means of propaganda, with mile markers and inscriptions celebrating the accomplishments of the Roman Empire and its emperors.
+Visualizing overland travel during the time of Ancient Rome also allows us to understand the challenges and dangers of travel during this time. While the Roman roads were relatively safe and secure, travelers still faced numerous risks, including bandits, highwaymen, and natural disasters. Travelers also had to deal with the harsh and unforgiving landscape of the empire, including deserts, mountains, and rivers.
+Overall, the Roman road system was a remarkable achievement of engineering and organization, and it played a significant role in the success and expansion of the Roman Empire. Visualizing overland travel during this time allows us to understand its impact on the economy, military tactics, and daily life of the people, as well as the challenges and dangers that travelers faced. The Roman road system remains a testament to the power and achievements of the Ancient Romans and their lasting impact on our world today.</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Visualizing Overland Travel, When All Roads Led to Rome</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>['Roadmaps', 'Maps', 'Roman Empire', 'History', 'Data Visualization']</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>737</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1678740020</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>chatcmpl-6tjFscz3br2WUcY5Y84mXImTZaG4c</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0301</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>chat.completion</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>769</v>
+      </c>
+      <c r="L31" t="n">
+        <v>36</v>
+      </c>
+      <c r="M31" t="n">
+        <v>805</v>
+      </c>
+      <c r="N31" t="n">
+        <v>655</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-82</v>
+      </c>
+      <c r="P31" t="n">
+        <v>60.20158</v>
+      </c>
+      <c r="Q31" s="2" t="n">
+        <v>44998.69435776903</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+In my previous essay, I explained how the arithmetic mean, or simply the average, can sometimes lead to incorrect conclusions. But there are other types of averages that can be used to provide more accurate representations of data. In this essay, I will discuss three other measures of central tendency: the median, mode, and geometric mean.
+The median is the value that separates the lower half of a dataset from the upper half. To find the median, one needs to sort the data in ascending or descending order and select the middle value. In case there are two middle values, the median is the average of those two values. For example, consider the following dataset:
+10, 20, 30, 40, 50, 60, 70
+The median of this dataset is 40 because it is the value that separates the lower three values from the upper three. Compared to the arithmetic mean of this dataset (which is 40 as well), the median can be a better measure of central tendency when there are extreme values or outliers that skew the dataset. For example, if we add an outlier of 100 to the dataset above, the arithmetic mean would increase to 51.4, while the median would stay constant at 40.
+The mode, on the other hand, is the value that occurs most frequently in a dataset. Unlike the median and arithmetic mean, the mode is not affected by extreme values because it only depends on the frequencies of values. For example, consider the following dataset:
+10, 20, 20, 30, 40, 40, 40, 50, 60, 60
+The mode of this dataset is 40 because it occurs three times, which is more than any other value. The mode can be useful in situations where one wants to know the most common value in a dataset. However, it can also be misleading when a dataset has multiple modes or when there are values with high frequencies but low importance.
+The geometric mean is a type of average that is used to represent the central tendency of data that has a multiplicative relationship. It is calculated by taking the nth root of the product of n values in a dataset. For example, consider the following dataset:
+1, 2, 4, 8, 16
+To find the geometric mean of this dataset, one needs to multiply all the values together and then take the fifth root of the product:
+(1 * 2 * 4 * 8 * 16)^(1/5) = 4.0
+The geometric mean of this dataset is 4.0, which is lower than the arithmetic mean of 6.2. This is because the values in this dataset have a multiplicative relationship (each value is twice the previous value), and the geometric mean is better suited to represent such relationships. The geometric mean can be useful in situations involving growth rates or ratios, such as investment returns, population growth, or disease spread.
+To illustrate the differences between these measures of central tendency, let us consider a practical example. Suppose we want to compare the heights of two groups of people: a group of ten 10th graders and a group of ten 12th graders. The heights of the 10th graders are:
+155, 158, 160, 162, 165, 167, 170, 173, 176, 180
+While the heights of the 12th graders are:
+165, 167, 170, 173, 174, 176, 179, 181, 183, 185
+Using the arithmetic mean, we get:
+10th graders: (155 + 158 + 160 + 162 + 165 + 167 + 170 + 173 + 176 + 180) / 10 = 167.6 cm
+12th graders: (165 + 167 + 170 + 173 + 174 + 176 + 179 + 181 + 183 + 185) / 10 = 174.3 cm
+Based on this calculation, we might conclude that the average height of 12th graders is significantly higher than that of 10th graders. However, if we use the median instead, we get:
+10th graders: (162 + 165) / 2 = 163.5 cm
+12th graders: (174 + 176) / 2 = 175 cm
+Now, the difference between the two groups is much smaller. This is because the median is less affected by extreme values than the arithmetic mean. Finally, if we use the mode, we get:
+10th graders: no mode
+12th graders: 173 cm
+In this case, the mode only applies to the 12th graders because they have a value that occurs more frequently than any other value. However, the mode does not provide much additional information about the heights of these two groups.
+In conclusion, the arithmetic mean is the most commonly used measure of central tendency, but it is not always the most appropriate. The median, mode, and geometric mean can be used to provide more accurate representations of data depending on the type of data and the research question. It is important to choose the appropriate measure of central tendency based on the specific context, rather than relying on the default option of the arithmetic mean.</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>On Average, You’re Using the Wrong Average — Part II</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>['Mathematics', 'Data Visualization', 'Data Science', 'R', 'Statistics']</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E32" t="n">
+        <v>829</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>10th grade</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1678740053</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>chatcmpl-6tjGPCSVzZYuPTv8q6XAkqRyPFs7R</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0301</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>chat.completion</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1102</v>
+      </c>
+      <c r="L32" t="n">
+        <v>39</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1141</v>
+      </c>
+      <c r="N32" t="n">
+        <v>819</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-10</v>
+      </c>
+      <c r="P32" t="n">
+        <v>45.785938</v>
+      </c>
+      <c r="Q32" s="2" t="n">
+        <v>44998.69505490665</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+In the previous article, we discussed how relying solely on the mean as a measure of central tendency can be problematic in certain scenarios. In this follow-up piece, we will delve deeper into the topic and explore alternative measures of central tendency that can provide a more accurate representation of the data.
+To recap briefly, the mean is calculated by adding up all the values in a dataset and dividing by the number of observations. It is the most commonly used measure of central tendency, but it can be skewed by extreme values, resulting in a distorted representation of the data. This is particularly true when dealing with datasets that have a long tail, as a few outliers can have a significant impact on the mean.
+One alternative to the mean that is often used in such situations is the median. The median is the middle value in a dataset when the values are arranged in order of magnitude. It is less sensitive to extreme values than the mean and provides a more accurate representation of the central value in skewed datasets.
+To illustrate this point, let us consider an example. Suppose we have a dataset of salaries for a company consisting of 10 employees. Nine of the employees earn $50,000 per year, while the CEO earns $1,000,000 per year. If we calculate the mean salary for the company, we get $140,000, which is significantly higher than the salary of the majority of the employees. However, if we calculate the median salary, we get $50,000, which is a more accurate reflection of the central value in the dataset.
+Another alternative to the mean is the mode, which represents the most frequently occurring value in a dataset. The mode is useful in datasets where there are clear peaks or modes, and the data is bimodal or multimodal. For example, in a dataset of exam scores, the mode may be the score that most frequently appears on the distribution.
+While the mean, median, and mode are the most commonly used measures of central tendency, there are other measures that can be useful in specific scenarios. One such measure is the geometric mean, which is calculated by taking the nth root of the product of n values. The geometric mean is useful when dealing with datasets that involve growth rates, such as population growth or investment returns. It provides a more accurate representation of the average growth rate over time.
+Another measure of central tendency that is often used in finance is the harmonic mean. The harmonic mean is calculated by taking the reciprocal of each value in the dataset, finding the mean of these reciprocals, and then taking the reciprocal of the mean. The harmonic mean is useful in situations where rates or ratios need to be averaged, such as average speed or miles per gallon.
+In addition to the measures of central tendency, it is essential to consider other measures of variability, such as range, variance, and standard deviation, when analyzing datasets. Range is the difference between the largest and smallest values in a dataset, while variance and standard deviation measure the spread of data around the mean. Variance is calculated by finding the average of the squared differences of each value from the mean, while standard deviation is the square root of the variance.
+It is crucial to consider measures of variability because they provide valuable information about the spread of data around the mean. In datasets with high variability, the mean may not be a useful measure of central tendency, as it can be skewed by extreme values. In such cases, measures of variability can provide additional insights into the distribution of the data.
+It is worth noting that different measures of central tendency and variability are appropriate for different types of data and research questions. Therefore, it is essential to choose the appropriate measure based on the nature of the data and the research question.
+In conclusion, relying solely on the mean as a measure of central tendency can be problematic, particularly in datasets with extreme values or long tails. Alternative measures of central tendency, such as the median and mode, can provide a more accurate representation of the data. Additionally, considering measures of variability, such as range, variance, and standard deviation, can provide valuable insights into the spread of data around the mean. Ultimately, selecting the appropriate measure of central tendency and variability depends on the nature of the data and the research question. Therefore, researchers and analysts must consider a range of measures when analyzing data to ensure that their findings are accurate and not distorted by the choice of measure.</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>On Average, You’re Using the Wrong Average — Part II</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>['Mathematics', 'Data Visualization', 'Data Science', 'R', 'Statistics']</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>829</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1678740098</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>chatcmpl-6tjH8EubPZ9n7bkdtpsRZYweR5Fsv</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0301</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>chat.completion</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>882</v>
+      </c>
+      <c r="L33" t="n">
+        <v>36</v>
+      </c>
+      <c r="M33" t="n">
+        <v>918</v>
+      </c>
+      <c r="N33" t="n">
+        <v>775</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-54</v>
+      </c>
+      <c r="P33" t="n">
+        <v>35.785058</v>
+      </c>
+      <c r="Q33" s="2" t="n">
+        <v>44998.69558488793</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>America’s Worst Nuclear Disaster
+The Chernobyl disaster that took place in 1986 is considered to be the worst nuclear disaster the world has ever faced. However, not many people are aware of the fact that the United States has also experienced a catastrophic nuclear accident that has forever changed the lives of numerous people. This catastrophic incident is popularly known as the Three Mile Island disaster, which occurred in 1979.
+Three Mile Island is a nuclear power plant located in Pennsylvania, which was supplying power to a large part of the state. On March 28, 1979, while the Unit 2 reactor at the Three Mile Island power plant was operating, a cooling malfunction caused part of the core to melt in the reactor. This resulted in a partial meltdown of the nuclear reactor, which escalated into a nuclear crisis that lasted for several days.
+The cause of the accident can be traced back to the control room of the power plant, where a water pump failed to function. The operators failed to notice that the cooling water was escaping and not being replaced, so the core of the reactor began to overheat. As a result of this overheating, the fuel rods in the reactor began to meltdown.
+When the reactor started to melt, the containment building that was supposed to house any radioactive material that might escape failed to do so properly. This allowed the radioactive gases to escape into the atmosphere. A radiation plume was released into the air, covering the surrounding area with radioactive particles.
+The disaster led to widespread panic and fear among the residents living close to the power plant. The government immediately set up a 20-mile evacuation zone around the site, forcing over 100,000 people to leave their homes. The evacuation process was chaotic, and many people were unable to take their possessions with them. The residents were not aware of the severity of the accident until several days later, when the government finally released an official statement.
+The impact of the Three Mile Island disaster was significant, not only for the people living near the power plant but also for the entire country. The accident was a stark reminder of the dangers of nuclear power and the importance of strict regulations and safety measures. The incident also raised awareness about the potential risks associated with nuclear plants, and it led to the development of more strict regulations.
+The disaster had a significant impact on the lives of the people who lived close to the power plant, especially those who were evacuated from their homes. The evacuation was a traumatic experience for many, and they lost their homes and possessions. Many also had to abandon their pets and livestock, as they were not allowed to take them with them. The displaced residents were forced to find shelter with friends and family or in government-provided housing, which was often inadequate and uncomfortable.
+The disaster also had a severe impact on the economy of the surrounding area. Many businesses were forced to shut down, and the loss of property value resulted in a significant decline in the local tax base. The tourism industry also suffered, as people avoided the area due to fear of exposure to radiation.
+The impact of the Three Mile Island disaster was not limited to the immediate area around the power plant. The incident had a long-lasting effect on the entire nuclear industry in the United States. The disaster caused widespread panic and fear among the public, and it led to increased skepticism about the safety of nuclear power. It also led to changes in the regulation of nuclear power plants, with stricter safety measures being implemented to prevent another disaster like Three Mile Island.
+In conclusion, the Three Mile Island disaster is considered to be one of the worst nuclear disasters in American history. It had a significant impact on the lives of the people who were affected by the accident, and it raised awareness about the potential risks of nuclear power. The incident led to stricter regulations and safety measures being implemented to prevent another disaster. However, the impact of the disaster is still felt in the local community, and it serves as a reminder of the importance of safety and regulation in the nuclear industry.</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>America’s Worst Nuclear Disaster</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>['Cold War', 'Innovation', 'History', 'Nuclear', 'America']</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>842</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>10th grade</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1678740134</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>chatcmpl-6tjHiKRcrm7DNEIfLG9o2Cy2Mi2S3</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0301</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>chat.completion</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>804</v>
+      </c>
+      <c r="L34" t="n">
+        <v>32</v>
+      </c>
+      <c r="M34" t="n">
+        <v>836</v>
+      </c>
+      <c r="N34" t="n">
+        <v>715</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-127</v>
+      </c>
+      <c r="P34" t="n">
+        <v>29.640879</v>
+      </c>
+      <c r="Q34" s="2" t="n">
+        <v>44998.69599942911</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The world was shocked when the news broke of the worst nuclear disaster in American history. The accident happened on March 28, 1979, at the Three Mile Island nuclear power plant, located near Harrisburg, Pennsylvania. The incident was caused by a combination of technical and human errors, which resulted in a partial meltdown of the reactor's core. The disaster had a profound impact on the nation's energy policy, the nuclear industry, and the public perception of nuclear power.
+The Three Mile Island nuclear power plant was commissioned in 1974 and operated by General Public Utilities (GPU). The plant had two pressurized water reactors (PWR) that generated electricity by heating water using nuclear fuel. The plant was designed to withstand an earthquake and protect against a complete loss of coolant, which could cause a catastrophic meltdown. However, the operators of Three Mile Island's Unit 2 reactor faced a situation that was not covered in the plant’s design: a partial loss of coolant. 
+The incident occurred at 4:00 am when the reactor's cooling system malfunctioned, causing the temperature in the core to rise rapidly. The automated safety systems, designed to shut down the reactor in case of an emergency, did not function as expected. The operators then manually activated the emergency cooling system, which inadvertently created a loss of coolant accident (LOCA). The LOCA caused a reduction in the flow of coolant to the reactor, triggering an automatic shutdown of the reactor. 
+The operators then discovered that a valve in the primary coolant system was stuck open, allowing coolant to escape from the reactor. The operators tried to close the valve, but the indicator showed the valve was closed when it was not. The operators assumed the valve was closed and did not take any further action. As a result, the reactor continued to overheat, and the fuel rods started to melt. 
+The reactor's containment building was designed to prevent the release of radioactive material into the environment, but it was breached due to the high pressure and temperature inside the reactor. The operator did not realize the severity of the situation and delayed informing the government and the public. It was not until three days later that the Governor of Pennsylvania was informed of the situation and declared a state of emergency.
+The accident resulted in the release of radioactive gases, primarily radioactive iodine and xenon, into the environment. However, the amount of radiation released was relatively small and did not cause any immediate health effects. The public was concerned about the potential danger of the radiation, and many people evacuated the area. The incident became a media sensation, and the public outcry was intense. The accident had far-reaching effects on the nuclear industry in the United States.
+The Three Mile Island disaster was a turning point in the public perception of nuclear power. Prior to the accident, nuclear power was seen as a safe, cheap, and clean source of energy that could reduce the nation's dependence on fossil fuels. The accident shattered this perception and created widespread fear and uncertainty about the safety of nuclear power. The government responded by imposing stricter safety regulations and slowing down the growth of the nuclear industry. 
+The Three Mile Island disaster had a profound impact on the nuclear industry. The accident caused a significant loss of public confidence in the safety of nuclear power plants. It also led to a decrease in the construction of new nuclear power plants and an increase in safety regulations. The disaster prompted the creation of the Nuclear Regulatory Commission (NRC), an independent agency charged with ensuring the safety of nuclear power plants. The NRC implemented new safety regulations and required all nuclear power plants to undergo extensive safety reviews.
+The Three Mile Island disaster also had a significant impact on the nation's energy policy. Prior to the accident, nuclear power was seen as a critical component of the nation's energy mix. The Three Mile Island disaster changed this perception and led to a shift toward renewable energy sources, such as wind and solar power. The disaster also led to a reevaluation of the nation's energy policy and a focus on energy conservation and efficiency.
+In conclusion, the Three Mile Island disaster was America's worst nuclear disaster. The accident was caused by a combination of technical and human errors, which resulted in a partial meltdown of the reactor's core. The disaster had far-reaching effects on the nuclear industry, the public perception of nuclear power, and the nation's energy policy. The Three Mile Island disaster served as a wake-up call for the nation, and it prompted the creation of new safety regulations and a shift towards renewable energy sources. The nation learned a valuable lesson from the Three Mile Island disaster, and it has taken steps to ensure that such an incident never happens again.</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>America’s Worst Nuclear Disaster</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>['Cold War', 'Innovation', 'History', 'Nuclear', 'America']</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>842</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1678740164</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>chatcmpl-6tjIChxHo48vkOH7kaeKPlXsjEpmn</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0301</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>chat.completion</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>934</v>
+      </c>
+      <c r="L35" t="n">
+        <v>29</v>
+      </c>
+      <c r="M35" t="n">
+        <v>963</v>
+      </c>
+      <c r="N35" t="n">
+        <v>806</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-36</v>
+      </c>
+      <c r="P35" t="n">
+        <v>36.682811</v>
+      </c>
+      <c r="Q35" s="2" t="n">
+        <v>44998.69634257923</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+As I read Toni Morrison's "The Bluest Eye", I couldn't help but feel a deep connection with the protagonist, Pecola. Her story brought forth a slew of emotions within me, ranging from sadness, anger, confusion, and frustration. It was as if every page that I flipped through was a reminder of my own struggles with self-worth and acceptance.
+Pecola's story is a tragic one. She is a young black girl growing up in a society that values white beauty standards above all else. Her dark skin, kinky hair, and brown eyes are constantly belittled and ridiculed by those around her. Even her own classmates participate in the mockery, reinforcing the notion that beauty is only attainable by those with fair skin and light hair.
+As I read more about Pecola's experiences, I couldn't help but think about my own. Although I'm not a dark-skinned girl, I've had my fair share of struggles with self-acceptance. Growing up, I was always told that I was different. Different from the other kids in my class, different from my own family members, and different from the images I saw on television. I felt like an outsider, simply because I didn't fit into the boxes that society had laid out for me.
+It's an isolating feeling, to be constantly reminded that you don't belong. And for Pecola, that feeling is amplified by the violent and abusive environments in which she lives. Her parents' constant fighting, her father's sexual abuse, and her mother's obsession with cleanliness all contribute to a sense of chaos in her life. It's as if she's constantly walking on a tightrope, trying to keep her head above water while everything else is falling apart around her.
+But what struck me the most about Pecola's story was her desire for blue eyes. It's a desire that seems so simple on the surface, yet it's one that reveals so much about the world in which she lives. Blue eyes are a symbol of white beauty standards, an unattainable ideal that Pecola believes will bring her the acceptance and love that she so desperately craves.
+I remember feeling the same way when I was younger. I would look in the mirror and wish that I looked different, that I could change something about myself to fit in better with those around me. It's a mentality that is drilled into us from a young age, that we must conform to the norm or risk being ostracized.
+But as I grew older and began to understand the world around me better, I realized that conformity is not the answer. We must embrace our differences and celebrate the unique qualities that make us who we are. It's not an easy path to take, but it's one that is necessary if we want to create a world where everyone is accepted and valued for who they are.
+Ultimately, Pecola's story is a heartbreaking reminder of the ways in which society can warp our perceptions of beauty, love, and acceptance. It's a reminder that we must do better, that we must be better, if we want to create a world where everyone can thrive.
+As I finished reading "The Bluest Eye", I couldn't help but think about what I could do to make a difference. How could I help break down the damaging beauty standards that so many of us have internalized? How could I create a safer and more accepting world for those like Pecola, who are made to feel like they don't belong? These are questions that I still grapple with today, but I know that they are important ones to ask.
+In the end, Pecola and I may be very different people, living very different lives. But our shared experiences of feeling like outsiders, of struggling to fit into a world that seems determined to push us out, are what connect us. And it's through those connections that we can begin to create a world where everyone is seen and valued for who they truly are.</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Pecola and Me</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>['History', 'Race', 'Literature']</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1010</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>10th grade</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1678740200</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>chatcmpl-6tjImWn5FZ9G8nG4GiZAupEo4ExJ2</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0301</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>chat.completion</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>813</v>
+      </c>
+      <c r="L36" t="n">
+        <v>33</v>
+      </c>
+      <c r="M36" t="n">
+        <v>846</v>
+      </c>
+      <c r="N36" t="n">
+        <v>669</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-341</v>
+      </c>
+      <c r="P36" t="n">
+        <v>32.356873</v>
+      </c>
+      <c r="Q36" s="2" t="n">
+        <v>44998.69676772982</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Pecola and Me
+In Toni Morrison's novel "The Bluest Eye," the character of Pecola is a young black girl who is desperately seeking acceptance and validation in a white-dominated society. As a reader and a person of color, I can relate to Pecola's struggle and the overwhelming desire to be seen as beautiful and worthy.
+Growing up, I often felt like an outsider in a predominantly white neighborhood and school. I remember wishing that I had straight hair and lighter skin, like the white girls around me. I would spend hours straightening my hair or trying to lighten my skin with remedies I read about online. It wasn't until I was older that I realized how damaging these thoughts and actions were to my self-esteem and my identity as a black woman.
+Reading "The Bluest Eye" was a pivotal moment for me. It was the first time I saw my own experiences reflected in literature. I empathized with Pecola's yearning for blue eyes, which she believes would make her beautiful and desirable. The societal pressure for women of color to conform to Eurocentric beauty standards is still prevalent today, and it is damaging to our mental health and sense of self-worth.
+Pecola's story also highlights the intersectionality of racism, sexism, and poverty. Pecola is not only discriminated against for her skin color but also for her gender and socio-economic status. As a poor black girl, she is at the bottom of the social hierarchy, and her worth is constantly devalued by those around her. This intersectionality is something that black women face every day, and it is important that we acknowledge and address it.
+One of the most heartbreaking moments in the novel is when Pecola is raped by her own father. Morrison's portrayal of the trauma and shame that Pecola experiences is both powerful and painful to read. This scene sheds light on the issue of sexual violence and abuse within the black community, which is often silenced and ignored. It is a reminder that we need to listen to and believe survivors of sexual assault and work towards creating a safe and supportive environment for them to heal.
+Despite the darkness of Pecola's story, there are moments of hope and resilience. The character of Claudia, Pecola's friend, serves as a voice of resistance and empowerment. Claudia's rejection of white beauty standards and her love for her own blackness are a reminder that we do not have to conform to harmful societal norms. We can define our own beauty and worth, and it does not have to be validated by anyone else.
+Another important aspect of the novel is the role of community and how it can contribute to both the oppression and liberation of black individuals. Pecola's community is not a supportive one, with many of the adults in her life contributing to her trauma and degradation. However, there are also moments of kindness and solidarity, such as when Claudia and Frieda try to comfort Pecola after her rape. It is a reminder that we need to hold ourselves accountable for our actions and how they affect those around us.
+As a college student, reading "The Bluest Eye" has helped me understand the importance of representation in literature and media. It is crucial that we see ourselves and our experiences reflected in the stories we consume. It validates our existence and helps us navigate our own struggles. It is also important for people who do not share our experiences to read and learn from stories like Pecola's, to acknowledge and address the systemic oppression and injustices that exist in our society.
+In conclusion, "The Bluest Eye" is a powerful and necessary novel that sheds light on the struggles of black girls and women in a white-dominated society. Through Pecola's story, we see the damaging effects of racism, sexism, and poverty, and the importance of self-love and resilience. It is a reminder that we need to create a society that values and uplifts all individuals, regardless of their race, gender, or socio-economic status. As a person of color, reading this novel has helped me embrace my own identity and reject harmful societal norms. It is a story that will stay with me for a long time, and I hope that others will read and learn from it as well.</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Pecola and Me</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>['History', 'Race', 'Literature']</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1010</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1678740233</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>chatcmpl-6tjJJciiLbMkGvfjO46hhjac5RiYu</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0301</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>chat.completion</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>863</v>
+      </c>
+      <c r="L37" t="n">
+        <v>30</v>
+      </c>
+      <c r="M37" t="n">
+        <v>893</v>
+      </c>
+      <c r="N37" t="n">
+        <v>720</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-290</v>
+      </c>
+      <c r="P37" t="n">
+        <v>36.700362</v>
+      </c>
+      <c r="Q37" s="2" t="n">
+        <v>44998.69714237974</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+For Whom The Bell Tolls: An Analysis of Page 333
+Ernest Hemingway’s classic novel, For Whom The Bell Tolls, tells the story of a young American named Robert Jordan who is fighting alongside the Spanish rebels during the Spanish Civil War. Although the novel takes an antiwar stance, Hemingway also shows the valor and courage of the soldiers who fought for their beliefs. Page 333 of the novel is a pivotal moment where the characters face the reality of their situation and the possibility of death.
+The scene begins with Robert Jordan and his comrades taking a break from their mission to blow up a bridge. They’ve been waiting for the signal to start, but it’s getting late, and they’re tired and hungry. Robert Jordan is an explosives expert, and his role is crucial to the success of the mission. He’s also in love with a young woman named Maria, who is staying in a nearby cave. This moment represents a lull in the action, but it’s also ripe with tension as the characters prepare for the unknown.
+Hemingway’s language sets the tone for the scene. He describes the sun setting and the colors of the sky as “rose and pink and lavender,” which contrasts with the impending danger. The sky is beautiful, but it’s also a reminder that the day is coming to an end, and time is running out. Hemingway also shows the characters’ weariness, describing Robert Jordan as having “leaned his head back against the rock wall and closed his eyes,” and Pablo, the leader of the group, as being “tired to the bone.” The use of sensory details helps to immerse the reader in the scene and create a sense of atmosphere.
+The sense of danger is heightened when a messenger arrives with news that enemy troops are on their way. Suddenly the characters are forced to confront the reality of what they’re doing. If they fail in their mission, the consequences could be dire. The messenger describes the enemy troops as “English and Irish,” which is significant because it shows the international nature of the conflict. The Spanish Civil War was not just a civil war, but also a battle between fascism and democracy, with international players on both sides.
+The tension builds as the characters debate their next move. Pablo wants to abandon the mission and flee, but Robert Jordan insists on going ahead with the plan. He argues that if they leave now, they’ll have accomplished nothing, and the enemy will still control the area. Robert Jordan’s bravery is evident in his willingness to risk his life for something he believes in. He’s not just fighting for the Spanish rebels; he’s fighting for the cause of democracy and freedom.
+The other characters in the scene are also complex and well-drawn. Pablo is a complicated figure who has lost faith in the cause and is consumed by fear. His fear is not just for his own safety but for the safety of his band of fighters. He’s afraid that they will all be killed if they proceed with the mission, and he begs Robert Jordan to think of their survival. The other characters are also torn between their loyalty to the cause and their own self-preservation. There’s a sense of camaraderie among the group, but also a sense of individualism.
+Hemingway’s use of dialogue is a powerful tool for character development. Each character has a distinct voice and point of view, which makes them feel like real people. Their arguments are not just about the mission but also about their personal beliefs and values. When Robert Jordan speaks about the importance of the mission, he’s not just talking about blowing up a bridge, but about the future of Spain and the world.
+The scene reaches its climax when Robert Jordan realizes that he’s been shot in the leg. The injury is severe, and he knows that he won’t be able to make it through the mission. The other characters are horrified and scramble to figure out what to do. The sense of panic is palpable as they try to come up with a plan. Robert Jordan’s injury is a symbolic moment because it represents the fragility of human life and the randomness of death. He’s not invincible, and neither are the other characters.
+The final moments of the scene are poignant as Robert Jordan faces the possibility of death. He’s resigned to his fate and tells Maria that he’s glad he’s met her. This moment is romantic, but it’s also sad because we know that their time together is limited. Hemingway shows the characters’ humanity and vulnerability, which is a departure from the stoic heroism often found in war stories. Robert Jordan is not just a hero; he’s a human being with emotions and fears.
+In conclusion, page 333 of For Whom The Bell Tolls is a powerful moment in the novel that captures the themes of bravery, loyalty, and mortality. Hemingway’s use of language, dialogue, and character development creates a sense of realism and immediacy that draws the reader into the scene. The characters’ debates about the mission and their individual beliefs are a reflection of the larger conflict that is being fought. Their sense of camaraderie and loyalty is tested when faced with danger, and their willingness to risk their lives for a cause is both inspiring and tragic. The scene is a reminder that war is not just about tactics and strategy but also about the human cost. For whom the bell tolls? It tolls for all of us.</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>For Whom The Bell Tolls, Page 333</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>['Angels', 'Fate', 'Literature', 'Books', 'Novel']</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E38" t="n">
+        <v>973</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>10th grade</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1678740270</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>chatcmpl-6tjJuP2oVgm34jo8pr5NEvff1892F</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0301</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>chat.completion</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1103</v>
+      </c>
+      <c r="L38" t="n">
+        <v>38</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1141</v>
+      </c>
+      <c r="N38" t="n">
+        <v>928</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-45</v>
+      </c>
+      <c r="P38" t="n">
+        <v>40.91533</v>
+      </c>
+      <c r="Q38" s="2" t="n">
+        <v>44998.69756771147</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+For Whom the Bell Tolls: A Closer Look at Page 333
+Ernest Hemingway’s For Whom the Bell Tolls is a gripping novel that captures the essence of the Spanish Civil War. The story follows the journey of an American volunteer, Robert Jordan, who is tasked with blowing up a bridge to aid the Republican forces. Throughout the novel, Hemingway explores themes of love, heroism, sacrifice, and the devastating effects of war. One crucial moment in the novel is found on page 333, where Robert Jordan contemplates the meaning of the war he is fighting and the impact it will have on his life. Examining this page reveals the depth and complexity of Hemingway's writing, as well as his insights about the horrors of war.
+On page 333, Robert Jordan is at a crossroads in his life. After a series of setbacks and betrayals, he is facing the prospect of death. He reflects on his life and his reasons for fighting in the war. He acknowledges the fact that the war has changed him, and that he will never be the same person again. He is haunted by the thought of losing Maria, the woman he has fallen in love with, and the fact that he may never see her again. He is also troubled by the fact that the war has consumed his life, leaving him with few options for the future. As he contemplates his fate, he makes a profound realization:
+"But what is this 'it' that saves or destroys a man? Are men born with a certain fate, or is their destiny shaped by their choices and actions? These are the questions that Robert Jordan grapples with on page 333. He is faced with the harsh reality that the war is consuming him, body and soul. He feels as if he is already dead, and that his fate has already been sealed. Yet he also knows that he still has a choice. He can choose to fight to the bitter end, or he can choose to give up and accept his fate. In this moment of doubt and introspection, Robert Jordan realizes that he is not just fighting for a cause, but for his own survival."
+Hemingway's writing on page 333 is notable for its stark and uncompromising realism. He does not sugarcoat the horrors of war, nor does he romanticize the heroism of the soldiers who fight it. Instead, he offers a frank assessment of the toll that war takes on the human psyche. Through his protagonist, he explores the themes of identity, fate, and free will, and offers a powerful critique of the notion of heroism in war.
+One of the most striking aspects of page 333 is the way Hemingway uses language to convey the sense of despair and hopelessness that Robert Jordan feels. He employs short, terse sentences and fragments to create a staccato rhythm that reflects the fragmented state of mind of his character. He repeats words and phrases, such as "it" and "there is no answer," to underscore the sense of uncertainty and confusion that Robert Jordan experiences. This style of writing is characteristic of Hemingway's minimalist approach to prose, which emphasizes clarity, efficiency, and understatement.
+Another notable feature of page 333 is the way Hemingway juxtaposes the individual with the collective. He shows how the war has stripped away Robert Jordan's sense of self, leaving him with nothing but his duty to the cause. He is just one individual among many, a small cog in the machinery of war. Yet at the same time, he is acutely aware of his own mortality and the importance of his own life. He realizes that he is fighting not just for the cause, but for his own survival. This tension between the individual and the collective is a recurring theme throughout the novel, and reflects Hemingway's own experiences as a soldier in World War I.
+Finally, page 333 raises important questions about the nature of heroism in war. Hemingway challenges the conventional view that soldiers who fight in wars are heroes by default. He shows how the war has stripped away any illusions of heroism, leaving the soldiers with nothing but their own fears and doubts. Robert Jordan is not an unflinching hero, but a flawed and vulnerable human being, struggling to make sense of a world that has been torn apart by violence and chaos. Hemingway's portrayal of Robert Jordan is a powerful reminder that heroism is not a given, but something that is earned through struggle and sacrifice.
+In conclusion, page 333 of For Whom the Bell Tolls is a powerful and thought-provoking moment in the novel. Through the character of Robert Jordan, Hemingway explores the themes of identity, fate, and heroism in war. He shows how the war has stripped away the sense of self of the soldiers, leaving them with nothing but their duty to the cause. He also challenges the conventional view of heroism in war, showing how it is something that must be earned through struggle and sacrifice. Hemingway's writing on page 333 is notable for its stark and uncompromising realism, as well as its minimalist approach to prose. It is a powerful reminder of the devastating impact of war on the human psyche, and the toll it takes on the individual and the collective.</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>For Whom The Bell Tolls, Page 333</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>['Angels', 'Fate', 'Literature', 'Books', 'Novel']</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E39" t="n">
+        <v>973</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1678740311</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>chatcmpl-6tjKZcZFQWKhbxVwgpYJymrgBqMsp</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0301</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>chat.completion</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1076</v>
+      </c>
+      <c r="L39" t="n">
+        <v>35</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1111</v>
+      </c>
+      <c r="N39" t="n">
+        <v>887</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-86</v>
+      </c>
+      <c r="P39" t="n">
+        <v>41.696156</v>
+      </c>
+      <c r="Q39" s="2" t="n">
+        <v>44998.6980413495</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Elections are a fundamental aspect of any democracy. The concept of democracy implies that the citizens have the right to choose leaders who they believe will best govern their country. However, the key question that arises is whether the election process is fair. The idea of fair elections is crucial because it ensures that the choices made by the citizens reflect their true preferences. The fair election hypothesis postulates that the outcomes of elections are a good representation of the will of the people. This essay will aim to discuss the statistical framework for evaluating the fair election hypothesis.
+The premise of the fair election hypothesis is that elections are a fair reflection of the preferences of the voters. Therefore, statistical tests can be used to evaluate this hypothesis. Testing the hypothesis can be done by analyzing the data from elections and comparing them to the expected outcomes. The statistical analysis can be broken down into four steps.
+The first step is to define what constitutes a fair election. A fair election is one where the voters get to express their preferences without fear, coercion or manipulation. In addition, the vote should be counted accurately, and everyone's vote should have equal weight. The definition of fair election forms the basis for the measures that will be used to evaluate the hypothesis.
+The second step is to determine the expected outcomes of the election. The expected outcomes are the results that would be obtained if the election were conducted under ideal conditions. The ideal conditions include things like lack of vote rigging, manipulation, or coercion. The expected outcomes can be obtained by using statistical methods to model the voting patterns of the population.
+The third step is to compare the expected outcomes with the actual outcomes. The actual outcomes are the results of the election as announced by the electoral commission. The comparison between the two outcomes is done to determine whether the election was fair. If the actual results match the expected results, then there is evidence to suggest that the election was fair. However, if there are significant differences between the expected and actual outcomes, then there is evidence to suggest that the election was not fair.
+The fourth step is to draw conclusions from the comparison. The conclusions can be used to determine the factors that contributed to the fairness of the election. The factors could include things like the electoral process, the level of transparency, the level of education of the voters, and the presence of independent observers. The conclusions can also be used to identify the areas that need improvement to ensure that future elections are fair.
+In conclusion, the statistical framework for evaluating the fair election hypothesis involves four steps. The first step is to define what constitutes a fair election. The second step is to determine the expected outcomes of the election. The third step is to compare the expected outcomes with the actual outcomes, while the fourth step is to draw conclusions from the comparison. The fair election hypothesis is a fundamental aspect of any democracy, and it is essential to use statistical methods to ensure that the election process is free, transparent, and fair. In addition, the results obtained from the statistical analysis can be used to improve the electoral process in the future.</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>A Statistical Framework for Evaluating the Fair Election Hypothesis</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>['Statistics', 'Election Fraud', 'Election 2020', 'Politics', 'Voting']</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E40" t="n">
+        <v>655</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>10th grade</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1678740352</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>chatcmpl-6tjLEazIQVSvPrkGus1eFMGilXtGU</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0301</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>chat.completion</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>610</v>
+      </c>
+      <c r="L40" t="n">
+        <v>39</v>
+      </c>
+      <c r="M40" t="n">
+        <v>649</v>
+      </c>
+      <c r="N40" t="n">
+        <v>552</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-103</v>
+      </c>
+      <c r="P40" t="n">
+        <v>22.898293</v>
+      </c>
+      <c r="Q40" s="2" t="n">
+        <v>44998.69852445555</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+When it comes to elections, one of the most important values is fairness. The idea that every citizen has an equal chance to be heard in the democratic process is fundamental to the functioning of a democracy. However, there are times when the fairness of an election is called into question. This is where statistical frameworks come in. In this essay, I will explore how statistical analysis can be used to evaluate the fair election hypothesis.
+The fair election hypothesis states that every vote is counted accurately, and that no one is deterred from voting due to fraud, intimidation, or other factors. It assumes that all votes are cast by eligible voters and that each vote is counted exactly once. While this hypothesis seems simple enough, it can be challenging to evaluate in practice. One way to approach this is to use statistical methods to analyze election data.
+The first step in evaluating the fair election hypothesis is to collect and analyze election data. This data should include information on voter turnout, vote counts, and other factors that may affect the integrity of the election. Once the data is collected, statistical analysis can be used to identify patterns that may indicate unfairness.
+One method that has been used to evaluate the fair election hypothesis is regression analysis. Regression analysis is a statistical technique that can be used to identify relationships between variables. In the context of elections, regression analysis can be used to identify factors that are associated with voter turnout or vote counts. For example, regression analysis could be used to identify whether there is a relationship between the number of polling stations in an area and the number of votes cast in that area. If this relationship is found, it could indicate that some areas are receiving more resources than others, which could potentially impact the fairness of the election.
+Another statistical technique that can be used to evaluate the fair election hypothesis is hypothesis testing. Hypothesis testing is a way to evaluate whether an observed result is likely to have occurred by chance. For example, if a candidate wins an election by a very small margin, it may be worth testing whether this margin is statistically significant. If the margin is not statistically significant, it may suggest that the election was fair. However, if the margin is significant, it may suggest that some external factor affected the vote counts.
+Lastly, another statistical technique that can be used to evaluate the fair election hypothesis is simulation modeling. Simulation modeling involves creating a computer model of the election process and using it to simulate different scenarios. This can be used to test whether the observed election results are consistent with what would be expected under different assumptions. For example, simulation modeling could be used to test whether a particular voting machine is susceptible to fraud or whether a particular election process is prone to errors.
+While statistical frameworks can be useful for evaluating the fair election hypothesis, it is important to note that they have limitations. Statistical analysis is only as good as the data that is available. If data is missing or inaccurate, statistical analysis may not be able to identify patterns or relationships accurately. In addition, statistical analysis can only identify patterns or relationships; it cannot prove causality. For example, if regression analysis identifies a relationship between the number of polling stations in an area and the number of votes cast in that area, it cannot prove that the number of polling stations caused the difference in votes.
+In conclusion, statistical frameworks can be useful for evaluating the fair election hypothesis. Regression analysis, hypothesis testing, and simulation modeling are all techniques that can be used to identify patterns or relationships in election data. However, statistical analysis is only as good as the data that is available. While statistical frameworks may not be able to prove causality or identify every potential issue, they can be a valuable tool for evaluating the integrity of an election. By using statistical frameworks, researchers and policymakers can better understand how factors such as voter turnout, vote counts, and external factors may impact the fairness of an election.</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>A Statistical Framework for Evaluating the Fair Election Hypothesis</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>['Statistics', 'Election Fraud', 'Election 2020', 'Politics', 'Voting']</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E41" t="n">
+        <v>655</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1678740375</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>chatcmpl-6tjLbNfeoEdWpJ3C5ymfDp82CJwnk</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0301</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>chat.completion</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>774</v>
+      </c>
+      <c r="L41" t="n">
+        <v>36</v>
+      </c>
+      <c r="M41" t="n">
+        <v>810</v>
+      </c>
+      <c r="N41" t="n">
+        <v>695</v>
+      </c>
+      <c r="O41" t="n">
+        <v>40</v>
+      </c>
+      <c r="P41" t="n">
+        <v>32.110923</v>
+      </c>
+      <c r="Q41" s="2" t="n">
+        <v>44998.69878956814</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
